--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144344.9267635131</v>
+        <v>24918453.43788447</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144344.9267635131</v>
+        <v>24918453.43788447</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32466.84346868112</v>
+        <v>4054860.814637313</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32466.84346868112</v>
+        <v>4054860.814637313</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417356994.679352</v>
+        <v>52240602.9494568</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10461.98923447353</v>
+        <v>1057631.58860545</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20862.45739143988</v>
+        <v>2112710.817828244</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31280.60554840882</v>
+        <v>3171308.367050802</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41850.11522776699</v>
+        <v>4216270.346812705</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52254.22338473333</v>
+        <v>5272073.9360355</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62490.53933133349</v>
+        <v>6348431.454167835</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72752.6918631976</v>
+        <v>7450427.667204219</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83028.43254824617</v>
+        <v>8555127.922725076</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93928.30872162549</v>
+        <v>9596368.771665992</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103944.3477103648</v>
+        <v>10700112.66662334</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113798.251440911</v>
+        <v>11831590.972863</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123668.5126654359</v>
+        <v>12966324.42040445</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133538.7738899614</v>
+        <v>14101057.86794586</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144177.7084890513</v>
+        <v>15162470.42013154</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156335.5981150652</v>
+        <v>16014744.81021287</v>
       </c>
     </row>
   </sheetData>
